--- a/tests/test_data/test_regions_sectors.xlsx
+++ b/tests/test_data/test_regions_sectors.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikstra\Documents\GitHub\aneris\tests\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71745297-4DB3-449B-A7C6-77B12F054466}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4725" yWindow="3705" windowWidth="18675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,23 +82,23 @@
     <t>regionc</t>
   </si>
   <si>
-    <t>prefix|Emissions|BC|Harmonized-DB</t>
-  </si>
-  <si>
-    <t>prefix|Emissions|BC|sector1|Harmonized-DB</t>
-  </si>
-  <si>
-    <t>prefix|Emissions|BC|sector2|Harmonized-DB</t>
-  </si>
-  <si>
     <t>Mt BC/yr</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|BC|Harmonized</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|BC|sector1|Harmonized</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|BC|sector2|Harmonized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +161,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +247,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +299,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +492,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -510,25 +564,25 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2">
-        <v>32.85454545454546</v>
+        <v>32.854545454545459</v>
       </c>
       <c r="H2">
-        <v>35.07914438502674</v>
+        <v>35.079144385026737</v>
       </c>
       <c r="I2">
-        <v>36.52299465240642</v>
+        <v>36.522994652406418</v>
       </c>
       <c r="J2">
-        <v>37.76577540106952</v>
+        <v>37.765775401069519</v>
       </c>
       <c r="K2">
         <v>38.80748663101604</v>
@@ -543,13 +597,13 @@
         <v>40.72620320855615</v>
       </c>
       <c r="O2">
-        <v>40.96363636363637</v>
+        <v>40.963636363636368</v>
       </c>
       <c r="P2">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -560,10 +614,10 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -572,25 +626,25 @@
         <v>15.4</v>
       </c>
       <c r="H3">
-        <v>16.51764705882353</v>
+        <v>16.517647058823531</v>
       </c>
       <c r="I3">
         <v>17.28235294117647</v>
       </c>
       <c r="J3">
-        <v>17.95294117647059</v>
+        <v>17.952941176470588</v>
       </c>
       <c r="K3">
         <v>18.52941176470588</v>
       </c>
       <c r="L3">
-        <v>19.01176470588235</v>
+        <v>19.011764705882349</v>
       </c>
       <c r="M3">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N3">
-        <v>19.69411764705882</v>
+        <v>19.694117647058821</v>
       </c>
       <c r="O3">
         <v>19.89411764705882</v>
@@ -599,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -610,10 +664,10 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -622,10 +676,10 @@
         <v>17.45454545454546</v>
       </c>
       <c r="H4">
-        <v>18.56149732620321</v>
+        <v>18.561497326203209</v>
       </c>
       <c r="I4">
-        <v>19.24064171122994</v>
+        <v>19.240641711229941</v>
       </c>
       <c r="J4">
         <v>19.81283422459893</v>
@@ -637,19 +691,19 @@
         <v>20.63636363636364</v>
       </c>
       <c r="M4">
-        <v>20.88770053475936</v>
+        <v>20.887700534759361</v>
       </c>
       <c r="N4">
-        <v>21.03208556149733</v>
+        <v>21.032085561497329</v>
       </c>
       <c r="O4">
-        <v>21.06951871657754</v>
+        <v>21.069518716577541</v>
       </c>
       <c r="P4">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -660,25 +714,25 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
       <c r="F5">
         <v>30</v>
       </c>
       <c r="G5">
-        <v>32.85454545454546</v>
+        <v>32.854545454545459</v>
       </c>
       <c r="H5">
-        <v>35.07914438502674</v>
+        <v>35.079144385026737</v>
       </c>
       <c r="I5">
-        <v>36.52299465240642</v>
+        <v>36.522994652406418</v>
       </c>
       <c r="J5">
-        <v>37.76577540106952</v>
+        <v>37.765775401069519</v>
       </c>
       <c r="K5">
         <v>38.80748663101604</v>
@@ -693,13 +747,13 @@
         <v>40.72620320855615</v>
       </c>
       <c r="O5">
-        <v>40.96363636363637</v>
+        <v>40.963636363636368</v>
       </c>
       <c r="P5">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -710,10 +764,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -722,25 +776,25 @@
         <v>15.4</v>
       </c>
       <c r="H6">
-        <v>16.51764705882353</v>
+        <v>16.517647058823531</v>
       </c>
       <c r="I6">
         <v>17.28235294117647</v>
       </c>
       <c r="J6">
-        <v>17.95294117647059</v>
+        <v>17.952941176470588</v>
       </c>
       <c r="K6">
         <v>18.52941176470588</v>
       </c>
       <c r="L6">
-        <v>19.01176470588235</v>
+        <v>19.011764705882349</v>
       </c>
       <c r="M6">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N6">
-        <v>19.69411764705882</v>
+        <v>19.694117647058821</v>
       </c>
       <c r="O6">
         <v>19.89411764705882</v>
@@ -749,7 +803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -760,10 +814,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -772,10 +826,10 @@
         <v>17.45454545454546</v>
       </c>
       <c r="H7">
-        <v>18.56149732620321</v>
+        <v>18.561497326203209</v>
       </c>
       <c r="I7">
-        <v>19.24064171122994</v>
+        <v>19.240641711229941</v>
       </c>
       <c r="J7">
         <v>19.81283422459893</v>
@@ -787,13 +841,13 @@
         <v>20.63636363636364</v>
       </c>
       <c r="M7">
-        <v>20.88770053475936</v>
+        <v>20.887700534759361</v>
       </c>
       <c r="N7">
-        <v>21.03208556149733</v>
+        <v>21.032085561497329</v>
       </c>
       <c r="O7">
-        <v>21.06951871657754</v>
+        <v>21.069518716577541</v>
       </c>
       <c r="P7">
         <v>21</v>

--- a/tests/test_data/test_regions_sectors.xlsx
+++ b/tests/test_data/test_regions_sectors.xlsx
@@ -522,28 +522,28 @@
         <v>32.85454545454546</v>
       </c>
       <c r="H2">
-        <v>35.07914438502674</v>
+        <v>34.58258212375859</v>
       </c>
       <c r="I2">
-        <v>36.52299465240642</v>
+        <v>34.91871657754011</v>
       </c>
       <c r="J2">
-        <v>37.76577540106952</v>
+        <v>34.90099312452253</v>
       </c>
       <c r="K2">
-        <v>38.80748663101604</v>
+        <v>34.52941176470589</v>
       </c>
       <c r="L2">
-        <v>39.64812834224599</v>
+        <v>36.01176470588235</v>
       </c>
       <c r="M2">
-        <v>40.28770053475936</v>
+        <v>37.4</v>
       </c>
       <c r="N2">
-        <v>40.72620320855615</v>
+        <v>38.69411764705882</v>
       </c>
       <c r="O2">
-        <v>40.96363636363637</v>
+        <v>39.89411764705883</v>
       </c>
       <c r="P2">
         <v>41</v>
@@ -622,28 +622,28 @@
         <v>17.45454545454546</v>
       </c>
       <c r="H4">
-        <v>18.56149732620321</v>
+        <v>18.06493506493507</v>
       </c>
       <c r="I4">
-        <v>19.24064171122994</v>
+        <v>17.63636363636364</v>
       </c>
       <c r="J4">
-        <v>19.81283422459893</v>
+        <v>16.94805194805195</v>
       </c>
       <c r="K4">
-        <v>20.27807486631016</v>
+        <v>16</v>
       </c>
       <c r="L4">
-        <v>20.63636363636364</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>20.88770053475936</v>
+        <v>18</v>
       </c>
       <c r="N4">
-        <v>21.03208556149733</v>
+        <v>19</v>
       </c>
       <c r="O4">
-        <v>21.06951871657754</v>
+        <v>20</v>
       </c>
       <c r="P4">
         <v>21</v>
@@ -672,28 +672,28 @@
         <v>32.85454545454546</v>
       </c>
       <c r="H5">
-        <v>35.07914438502674</v>
+        <v>34.58258212375859</v>
       </c>
       <c r="I5">
-        <v>36.52299465240642</v>
+        <v>34.91871657754011</v>
       </c>
       <c r="J5">
-        <v>37.76577540106952</v>
+        <v>34.90099312452253</v>
       </c>
       <c r="K5">
-        <v>38.80748663101604</v>
+        <v>34.52941176470589</v>
       </c>
       <c r="L5">
-        <v>39.64812834224599</v>
+        <v>36.01176470588235</v>
       </c>
       <c r="M5">
-        <v>40.28770053475936</v>
+        <v>37.4</v>
       </c>
       <c r="N5">
-        <v>40.72620320855615</v>
+        <v>38.69411764705882</v>
       </c>
       <c r="O5">
-        <v>40.96363636363637</v>
+        <v>39.89411764705883</v>
       </c>
       <c r="P5">
         <v>41</v>
@@ -772,28 +772,28 @@
         <v>17.45454545454546</v>
       </c>
       <c r="H7">
-        <v>18.56149732620321</v>
+        <v>18.06493506493507</v>
       </c>
       <c r="I7">
-        <v>19.24064171122994</v>
+        <v>17.63636363636364</v>
       </c>
       <c r="J7">
-        <v>19.81283422459893</v>
+        <v>16.94805194805195</v>
       </c>
       <c r="K7">
-        <v>20.27807486631016</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>20.63636363636364</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>20.88770053475936</v>
+        <v>18</v>
       </c>
       <c r="N7">
-        <v>21.03208556149733</v>
+        <v>19</v>
       </c>
       <c r="O7">
-        <v>21.06951871657754</v>
+        <v>20</v>
       </c>
       <c r="P7">
         <v>21</v>

--- a/tests/test_data/test_regions_sectors.xlsx
+++ b/tests/test_data/test_regions_sectors.xlsx
@@ -519,31 +519,31 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <v>32.85454545454546</v>
+        <v>32.01690590111642</v>
       </c>
       <c r="H2">
-        <v>34.58258212375859</v>
+        <v>32.98149920255183</v>
       </c>
       <c r="I2">
-        <v>34.91871657754011</v>
+        <v>33.65986177565124</v>
       </c>
       <c r="J2">
-        <v>34.90099312452253</v>
+        <v>34.05199362041467</v>
       </c>
       <c r="K2">
-        <v>34.52941176470589</v>
+        <v>34.15789473684211</v>
       </c>
       <c r="L2">
-        <v>36.01176470588235</v>
+        <v>35.69473684210526</v>
       </c>
       <c r="M2">
-        <v>37.4</v>
+        <v>37.14736842105263</v>
       </c>
       <c r="N2">
-        <v>38.69411764705882</v>
+        <v>38.51578947368422</v>
       </c>
       <c r="O2">
-        <v>39.89411764705883</v>
+        <v>39.8</v>
       </c>
       <c r="P2">
         <v>41</v>
@@ -569,31 +569,31 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>15.4</v>
+        <v>15.16842105263158</v>
       </c>
       <c r="H3">
-        <v>16.51764705882353</v>
+        <v>16.04210526315789</v>
       </c>
       <c r="I3">
-        <v>17.28235294117647</v>
+        <v>16.83157894736842</v>
       </c>
       <c r="J3">
-        <v>17.95294117647059</v>
+        <v>17.53684210526316</v>
       </c>
       <c r="K3">
-        <v>18.52941176470588</v>
+        <v>18.15789473684211</v>
       </c>
       <c r="L3">
-        <v>19.01176470588235</v>
+        <v>18.69473684210526</v>
       </c>
       <c r="M3">
-        <v>19.4</v>
+        <v>19.14736842105263</v>
       </c>
       <c r="N3">
-        <v>19.69411764705882</v>
+        <v>19.51578947368421</v>
       </c>
       <c r="O3">
-        <v>19.89411764705882</v>
+        <v>19.8</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -619,16 +619,16 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <v>17.45454545454546</v>
+        <v>16.84848484848485</v>
       </c>
       <c r="H4">
-        <v>18.06493506493507</v>
+        <v>16.93939393939394</v>
       </c>
       <c r="I4">
-        <v>17.63636363636364</v>
+        <v>16.82828282828283</v>
       </c>
       <c r="J4">
-        <v>16.94805194805195</v>
+        <v>16.51515151515152</v>
       </c>
       <c r="K4">
         <v>16</v>
@@ -669,31 +669,31 @@
         <v>30</v>
       </c>
       <c r="G5">
-        <v>32.85454545454546</v>
+        <v>32.01690590111642</v>
       </c>
       <c r="H5">
-        <v>34.58258212375859</v>
+        <v>32.98149920255183</v>
       </c>
       <c r="I5">
-        <v>34.91871657754011</v>
+        <v>33.65986177565124</v>
       </c>
       <c r="J5">
-        <v>34.90099312452253</v>
+        <v>34.05199362041467</v>
       </c>
       <c r="K5">
-        <v>34.52941176470589</v>
+        <v>34.15789473684211</v>
       </c>
       <c r="L5">
-        <v>36.01176470588235</v>
+        <v>35.69473684210526</v>
       </c>
       <c r="M5">
-        <v>37.4</v>
+        <v>37.14736842105263</v>
       </c>
       <c r="N5">
-        <v>38.69411764705882</v>
+        <v>38.51578947368422</v>
       </c>
       <c r="O5">
-        <v>39.89411764705883</v>
+        <v>39.8</v>
       </c>
       <c r="P5">
         <v>41</v>
@@ -719,31 +719,31 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>15.4</v>
+        <v>15.16842105263158</v>
       </c>
       <c r="H6">
-        <v>16.51764705882353</v>
+        <v>16.04210526315789</v>
       </c>
       <c r="I6">
-        <v>17.28235294117647</v>
+        <v>16.83157894736842</v>
       </c>
       <c r="J6">
-        <v>17.95294117647059</v>
+        <v>17.53684210526316</v>
       </c>
       <c r="K6">
-        <v>18.52941176470588</v>
+        <v>18.15789473684211</v>
       </c>
       <c r="L6">
-        <v>19.01176470588235</v>
+        <v>18.69473684210526</v>
       </c>
       <c r="M6">
-        <v>19.4</v>
+        <v>19.14736842105263</v>
       </c>
       <c r="N6">
-        <v>19.69411764705882</v>
+        <v>19.51578947368421</v>
       </c>
       <c r="O6">
-        <v>19.89411764705882</v>
+        <v>19.8</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -769,16 +769,16 @@
         <v>16</v>
       </c>
       <c r="G7">
-        <v>17.45454545454546</v>
+        <v>16.84848484848485</v>
       </c>
       <c r="H7">
-        <v>18.06493506493507</v>
+        <v>16.93939393939394</v>
       </c>
       <c r="I7">
-        <v>17.63636363636364</v>
+        <v>16.82828282828283</v>
       </c>
       <c r="J7">
-        <v>16.94805194805195</v>
+        <v>16.51515151515152</v>
       </c>
       <c r="K7">
         <v>16</v>
